--- a/专利查询和搜集/test2/cleaned/img.xlsx
+++ b/专利查询和搜集/test2/cleaned/img.xlsx
@@ -455,48 +455,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="D887822.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="314325"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="D887822.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="314325"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -514,7 +514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="314325"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -531,48 +531,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="D871863.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="1323975"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="D871863.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="1323975"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -590,7 +590,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="1323975"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -607,48 +607,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="D856025.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="2333625"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="D856025.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="2333625"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -666,7 +666,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="2333625"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,48 +683,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="D822406.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="3343275"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="D822406.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="3343275"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -742,7 +742,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="3343275"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -759,48 +759,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="D819486.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="4352925"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="D819486.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="4352925"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -818,7 +818,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="4352925"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -835,48 +835,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="D791014.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="5362575"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="D791014.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="5362575"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -894,7 +894,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="5362575"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -911,48 +911,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="D743777.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="6372225"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="D743777.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="6372225"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -970,7 +970,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="6372225"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -987,48 +987,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="8756860.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="7381875"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="8756860.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="7381875"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1046,7 +1046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="7381875"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,48 +1063,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="D703973.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="8391525"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="D703973.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="8391525"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1122,7 +1122,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="8391525"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1139,48 +1139,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="D703972.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="9401175"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19" descr="D703972.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="9401175"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1198,7 +1198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="9401175"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1215,48 +1215,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="D652659.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="10410825"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21" descr="D652659.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="10410825"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1274,7 +1274,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="10410825"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1291,48 +1291,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="D647741.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="11420475"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23" descr="D647741.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="11420475"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1350,7 +1350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="11420475"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1367,48 +1367,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="D624394.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="12430125"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25" descr="D624394.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="12430125"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1426,7 +1426,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="12430125"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1443,48 +1443,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="7726072.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="13439775"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27" descr="7726072.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="13439775"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1502,7 +1502,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="13439775"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1519,48 +1519,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="D613542.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="14449425"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29" descr="D613542.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="14449425"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1578,7 +1578,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="14449425"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1595,48 +1595,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="7596905.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="15459075"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31" descr="7596905.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="15459075"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1654,7 +1654,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="15459075"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1671,48 +1671,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="7587860.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="16468725"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33" descr="7587860.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="16468725"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1730,7 +1730,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="16468725"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1747,48 +1747,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="D589720.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="17478375"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35" descr="D589720.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="17478375"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1806,7 +1806,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="17478375"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1823,48 +1823,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37" descr="D589719.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="18488025"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37" descr="D589719.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="18488025"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1882,7 +1882,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="18488025"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1899,48 +1899,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39" descr="7287736.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="19497675"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39" descr="7287736.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="19497675"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1958,7 +1958,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="19497675"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1975,48 +1975,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41" descr="7032347.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="20507325"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41" descr="7032347.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="20507325"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2034,7 +2034,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="20507325"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2051,48 +2051,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="4779377.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="21516975"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 43" descr="4779377.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="21516975"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2110,7 +2110,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="21516975"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2127,48 +2127,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45" descr="4666115.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="22526625"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45" descr="4666115.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="22526625"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2186,7 +2186,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="22526625"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2203,48 +2203,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="D286961.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="23536275"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 47" descr="D286961.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="23536275"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2262,7 +2262,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="23536275"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2279,48 +2279,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49" descr="4466217.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="24545925"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49" descr="4466217.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="24545925"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2338,7 +2338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="24545925"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2355,48 +2355,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51" descr="4463855.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="25555575"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51" descr="4463855.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="25555575"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2414,7 +2414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="25555575"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2431,48 +2431,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53" descr="D274202.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="26565225"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53" descr="D274202.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="26565225"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2490,7 +2490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="26565225"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2507,48 +2507,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55" descr="D271640.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="27574875"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 55" descr="D271640.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="27574875"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2566,7 +2566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="27574875"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2583,48 +2583,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57" descr="D271258.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="28584525"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57" descr="D271258.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="28584525"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2642,7 +2642,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="28584525"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2659,48 +2659,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59" descr="D270796.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="29594175"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59" descr="D270796.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="29594175"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2718,7 +2718,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="29594175"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2735,48 +2735,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61" descr="4337916.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="30603825"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61" descr="4337916.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="30603825"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2794,7 +2794,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="30603825"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2811,48 +2811,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63" descr="D261454.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="31613475"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 63" descr="D261454.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="31613475"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2870,7 +2870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="31613475"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2887,48 +2887,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65" descr="4262873.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="32623125"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65" descr="4262873.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="32623125"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2946,7 +2946,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="32623125"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2963,48 +2963,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="4159094.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="33632775"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67" descr="4159094.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="33632775"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3022,7 +3022,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="33632775"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3039,48 +3039,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="4098483.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="34642425"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69" descr="4098483.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="34642425"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3098,7 +3098,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="34642425"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3115,48 +3115,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="D506160.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="35652075"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71" descr="D506160.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="35652075"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3174,7 +3174,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="35652075"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3191,48 +3191,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="D463320.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="36661725"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73" descr="D463320.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="36661725"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3250,7 +3250,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="36661725"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3267,48 +3267,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="D436840.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="37671375"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 75" descr="D436840.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="37671375"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3326,7 +3326,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="37671375"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3343,48 +3343,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="D434641.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="38681025"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77" descr="D434641.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="38681025"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3402,7 +3402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="38681025"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3419,48 +3419,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79" descr="D432943.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="39690675"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79" descr="D432943.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="39690675"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3478,7 +3478,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="39690675"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3495,48 +3495,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81" descr="D419809.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="40700325"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 81" descr="D419809.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="40700325"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3554,7 +3554,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="40700325"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3571,48 +3571,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83" descr="D415366.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="41709975"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 83" descr="D415366.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="41709975"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3630,7 +3630,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="41709975"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3647,48 +3647,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85" descr="D411737.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="42719625"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Picture 85" descr="D411737.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="42719625"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3706,7 +3706,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="42719625"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3723,48 +3723,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87" descr="D350912.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="43729275"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Picture 87" descr="D350912.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="43729275"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3782,7 +3782,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="43729275"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3799,48 +3799,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89" descr="D348165.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="44738925"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Picture 89" descr="D348165.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="44738925"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3858,7 +3858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="44738925"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3875,48 +3875,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91" descr="D344867.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="45748575"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Picture 91" descr="D344867.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="45748575"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3934,7 +3934,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="45748575"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3951,48 +3951,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 93" descr="5020274.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="46758225"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Picture 93" descr="5020274.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="46758225"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4010,7 +4010,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="46758225"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4027,48 +4027,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 95" descr="D310146.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="47767875"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Picture 95" descr="D310146.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="47767875"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4086,7 +4086,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="47767875"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4103,48 +4103,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97" descr="D309541.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="48777525"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="Picture 97" descr="D309541.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="48777525"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4162,7 +4162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="48777525"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4179,48 +4179,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99" descr="4908982.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="49787175"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Picture 99" descr="4908982.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="49787175"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4238,7 +4238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="49787175"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4255,48 +4255,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101" descr="D305587.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="50796825"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Picture 101" descr="D305587.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="50796825"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4314,7 +4314,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="50796825"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4331,48 +4331,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103" descr="D301012.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="51806475"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Picture 103" descr="D301012.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="51806475"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4390,7 +4390,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="51806475"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4407,48 +4407,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105" descr="D300792.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="52816125"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Picture 105" descr="D300792.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="52816125"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4466,7 +4466,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="52816125"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4483,48 +4483,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107" descr="D300702.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="53825775"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Picture 107" descr="D300702.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="53825775"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4542,7 +4542,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="53825775"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4559,48 +4559,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 109" descr="D300302.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="54835425"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Picture 109" descr="D300302.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="54835425"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4618,7 +4618,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="54835425"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4635,48 +4635,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 111" descr="4811475.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="55845075"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="Picture 111" descr="4811475.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="55845075"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4694,7 +4694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="55845075"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4711,48 +4711,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Picture 113" descr="9826846.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="56854725"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="114" name="Picture 113" descr="9826846.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="56854725"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4770,7 +4770,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="56854725"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4787,48 +4787,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Picture 115" descr="4149339.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="57864375"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="116" name="Picture 115" descr="4149339.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="57864375"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4846,7 +4846,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="57864375"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4863,48 +4863,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Picture 117" descr="6299118.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="58874025"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="118" name="Picture 117" descr="6299118.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="58874025"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4922,7 +4922,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="58874025"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4939,48 +4939,48 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>524637</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Picture 119" descr="9271452.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId119"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="59883675"/>
+          <a:ext cx="1748790" cy="1131570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>339471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="120" name="Picture 119" descr="9271452.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId119"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="59883675"/>
-          <a:ext cx="524637" cy="339471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>322898</xdr:rowOff>
+      <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4998,7 +4998,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5038725" y="59883675"/>
-          <a:ext cx="700088" cy="322898"/>
+          <a:ext cx="1866900" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
